--- a/Result_sheet_pcos.xlsx
+++ b/Result_sheet_pcos.xlsx
@@ -962,40 +962,40 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>0.8098159509202454</v>
+        <v>0.7791411042944786</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8773006134969326</v>
+        <v>0.8834355828220859</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6196319018404908</v>
+        <v>0.6441717791411042</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.531827217755789</v>
+        <v>0.6132261246107182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8650306748466258</v>
+        <v>0.8343558282208589</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7914110429447853</v>
+        <v>0.7791411042944786</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.8834355828220859</v>
+        <v>0.8588957055214724</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8588957055214724</v>
+        <v>0.8957055214723927</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0.8834355828220859</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.6625766871165644</v>
+        <v>0.6503067484662577</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>0.8957055214723927</v>
+        <v>0.8895705521472392</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>0.7668711656441718</v>
+        <v>0.7607361963190185</v>
       </c>
     </row>
   </sheetData>

--- a/Result_sheet_pcos.xlsx
+++ b/Result_sheet_pcos.xlsx
@@ -962,40 +962,40 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>0.8098159509202454</v>
+        <v>0.8220858895705522</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8773006134969326</v>
+        <v>0.8711656441717791</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6196319018404908</v>
+        <v>0.6871165644171779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.531827217755789</v>
+        <v>0.5505130990981171</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8650306748466258</v>
+        <v>0.8220858895705522</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7914110429447853</v>
+        <v>0.803680981595092</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.8834355828220859</v>
+        <v>0.8159509202453987</v>
       </c>
       <c r="I13" s="5" t="n">
+        <v>0.901840490797546</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>0.8588957055214724</v>
       </c>
-      <c r="J13" s="5" t="n">
-        <v>0.8834355828220859</v>
-      </c>
       <c r="K13" s="5" t="n">
-        <v>0.6625766871165644</v>
+        <v>0.656441717791411</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>0.8957055214723927</v>
+        <v>0.8895705521472392</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>0.7668711656441718</v>
+        <v>0.8404907975460123</v>
       </c>
     </row>
   </sheetData>

--- a/Result_sheet_pcos.xlsx
+++ b/Result_sheet_pcos.xlsx
@@ -27,13 +27,13 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -64,25 +64,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +458,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,89 +466,89 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="10" max="10"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="13" max="13"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="9" max="9"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="10" max="10"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="11" max="11"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="12" max="12"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Threshold value</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>decision tree</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>adaboost</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>knn</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>random forest</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>logistic regression</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>gradient boosting</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>cat boosting</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>xg boosting</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> linear svm</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>radial svm</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>linear discriminant analysis</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Quadratic Discriminant Analysis</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="114" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>0.1</v>
       </c>
@@ -676,7 +685,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row r="3" ht="114" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>0.2</v>
       </c>
@@ -813,7 +822,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="20.25" customHeight="1">
+    <row r="4" ht="114" customHeight="1">
       <c r="A4" s="3" t="n">
         <v>0.3</v>
       </c>
@@ -950,7 +959,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="20.25" customHeight="1">
+    <row r="5" ht="114" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>0.4</v>
       </c>
@@ -1087,7 +1096,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="20.25" customHeight="1">
+    <row r="6" ht="114" customHeight="1">
       <c r="A6" s="3" t="n">
         <v>0.5</v>
       </c>
@@ -1224,7 +1233,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="20.25" customHeight="1">
+    <row r="7" ht="114" customHeight="1">
       <c r="A7" s="3" t="n">
         <v>0.6</v>
       </c>
@@ -1361,7 +1370,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="20.25" customHeight="1">
+    <row r="8" ht="114" customHeight="1">
       <c r="A8" s="3" t="n">
         <v>0.7</v>
       </c>
@@ -1498,7 +1507,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="20.25" customHeight="1">
+    <row r="9" ht="114" customHeight="1">
       <c r="A9" s="3" t="n">
         <v>0.8</v>
       </c>
@@ -1635,7 +1644,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="20.25" customHeight="1">
+    <row r="10" ht="114" customHeight="1">
       <c r="A10" s="3" t="n">
         <v>0.9</v>
       </c>
@@ -1772,7 +1781,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="20.25" customHeight="1">
+    <row r="11" ht="114" customHeight="1">
       <c r="A11" s="3" t="n">
         <v>0.95</v>
       </c>
@@ -1909,22 +1918,22 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="20.25" customHeight="1">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-      <c r="F12" s="6" t="n"/>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="6" t="n"/>
-      <c r="K12" s="6" t="n"/>
-      <c r="L12" s="6" t="n"/>
-      <c r="M12" s="6" t="n"/>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
     </row>
-    <row r="13" ht="20.25" customHeight="1">
+    <row r="13" ht="114" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>without feature selection</t>
@@ -2063,24 +2072,39 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="9" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="L14" s="9" t="n"/>
+      <c r="M14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="110.25" customHeight="1">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>forward selection</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.88      0.87      0.87       106
-           1       0.75      0.77      0.76        56
-    accuracy                           0.83       162
-   macro avg       0.82      0.82      0.82       162
-weighted avg       0.83      0.83      0.83       162
-</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.85      0.79      0.82       113
+           1       0.58      0.67      0.62        49
+    accuracy                           0.75       162
+   macro avg       0.71      0.73      0.72       162
+weighted avg       0.77      0.75      0.76       162
+</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.90      0.84      0.87       113
@@ -2091,7 +2115,7 @@
 </t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.92      0.84      0.88       115
@@ -2102,7 +2126,7 @@
 </t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
          0.0       0.89      0.84      0.86       111
@@ -2113,7 +2137,7 @@
 </t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.93      0.84      0.89       116
@@ -2124,7 +2148,7 @@
 </t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.94      0.78      0.85       127
@@ -2135,7 +2159,7 @@
 </t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.96      0.80      0.87       127
@@ -2146,7 +2170,7 @@
 </t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.90      0.86      0.88       111
@@ -2157,7 +2181,8 @@
 </t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" s="9" t="n"/>
+      <c r="K15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.93      0.91      0.92       108
@@ -2168,7 +2193,7 @@
 </t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.93      0.80      0.86       123
@@ -2179,7 +2204,7 @@
 </t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
            0       0.82      0.87      0.84        99
@@ -2191,6 +2216,134 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>backward selection</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.87      0.86      0.86       106
+           1       0.74      0.75      0.74        56
+    accuracy                           0.82       162
+   macro avg       0.80      0.80      0.80       162
+weighted avg       0.82      0.82      0.82       162
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.83      0.86       113
+           1       0.67      0.78      0.72        49
+    accuracy                           0.81       162
+   macro avg       0.78      0.80      0.79       162
+weighted avg       0.83      0.81      0.82       162
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.73      0.85      0.79        91
+           1       0.75      0.61      0.67        71
+    accuracy                           0.74       162
+   macro avg       0.74      0.73      0.73       162
+weighted avg       0.74      0.74      0.74       162
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.93      0.82      0.87       120
+         1.0       0.61      0.83      0.71        42
+    accuracy                           0.82       162
+   macro avg       0.77      0.82      0.79       162
+weighted avg       0.85      0.82      0.83       162
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.92      0.85      0.89       114
+           1       0.70      0.83      0.76        48
+    accuracy                           0.85       162
+   macro avg       0.81      0.84      0.82       162
+weighted avg       0.86      0.85      0.85       162
+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.81      0.86       118
+           1       0.61      0.80      0.69        44
+    accuracy                           0.81       162
+   macro avg       0.76      0.80      0.78       162
+weighted avg       0.83      0.81      0.82       162
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.83      0.87       115
+           1       0.67      0.81      0.73        47
+    accuracy                           0.83       162
+   macro avg       0.79      0.82      0.80       162
+weighted avg       0.84      0.83      0.83       162
+</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.92      0.84      0.88       115
+           1       0.68      0.83      0.75        47
+    accuracy                           0.84       162
+   macro avg       0.80      0.84      0.82       162
+weighted avg       0.85      0.84      0.84       162
+</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.99      0.66      0.79       157
+           1       0.07      0.80      0.13         5
+    accuracy                           0.67       162
+   macro avg       0.53      0.73      0.46       162
+weighted avg       0.96      0.67      0.77       162
+</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.82      0.87       120
+           1       0.61      0.83      0.71        42
+    accuracy                           0.82       162
+   macro avg       0.77      0.82      0.79       162
+weighted avg       0.85      0.82      0.83       162
+</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.84      0.89      0.86        99
+           1       0.81      0.73      0.77        63
+    accuracy                           0.83       162
+   macro avg       0.82      0.81      0.81       162
+weighted avg       0.83      0.83      0.83       162
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Result_sheet_pcos.xlsx
+++ b/Result_sheet_pcos.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2225,11 +2225,11 @@
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.87      0.86      0.86       106
-           1       0.74      0.75      0.74        56
-    accuracy                           0.82       162
-   macro avg       0.80      0.80      0.80       162
-weighted avg       0.82      0.82      0.82       162
+           0       0.84      0.84      0.84       105
+           1       0.70      0.70      0.70        57
+    accuracy                           0.79       162
+   macro avg       0.77      0.77      0.77       162
+weighted avg       0.79      0.79      0.79       162
 </t>
         </is>
       </c>
@@ -2344,6 +2344,112 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>boruta selection</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.86      0.90      0.88       100
+           1       0.82      0.76      0.79        62
+    accuracy                           0.85       162
+   macro avg       0.84      0.83      0.83       162
+weighted avg       0.84      0.85      0.84       162
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.91      0.91       106
+           1       0.82      0.84      0.83        56
+    accuracy                           0.88       162
+   macro avg       0.87      0.87      0.87       162
+weighted avg       0.88      0.88      0.88       162
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.93      0.86      0.89       114
+         1.0       0.72      0.85      0.78        48
+    accuracy                           0.86       162
+   macro avg       0.83      0.86      0.84       162
+weighted avg       0.87      0.86      0.86       162
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.90      0.92       110
+           1       0.81      0.88      0.84        52
+    accuracy                           0.90       162
+   macro avg       0.87      0.89      0.88       162
+weighted avg       0.90      0.90      0.90       162
+</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.87      0.89       110
+           1       0.75      0.83      0.79        52
+    accuracy                           0.86       162
+   macro avg       0.83      0.85      0.84       162
+weighted avg       0.86      0.86      0.86       162
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.95      0.85      0.90       117
+           1       0.70      0.89      0.78        45
+    accuracy                           0.86       162
+   macro avg       0.83      0.87      0.84       162
+weighted avg       0.88      0.86      0.87       162
+</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.87      0.90       113
+           1       0.74      0.86      0.79        49
+    accuracy                           0.86       162
+   macro avg       0.84      0.86      0.85       162
+weighted avg       0.87      0.86      0.87       162
+</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.96      0.88      0.92       115
+           1       0.75      0.91      0.83        47
+    accuracy                           0.89       162
+   macro avg       0.86      0.90      0.87       162
+weighted avg       0.90      0.89      0.89       162
+</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.82      0.88       120
+           1       0.63      0.86      0.73        42
+    accuracy                           0.83       162
+   macro avg       0.79      0.84      0.80       162
+weighted avg       0.86      0.83      0.84       162
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Result_sheet_pcos.xlsx
+++ b/Result_sheet_pcos.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2347,105 +2347,416 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>boruta selection</t>
+          <t>Recursive feature selection</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.86      0.90      0.88       100
-           1       0.82      0.76      0.79        62
+           0       0.84      0.87      0.85       101
+           1       0.77      0.72      0.75        61
+    accuracy                           0.81       162
+   macro avg       0.81      0.80      0.80       162
+weighted avg       0.81      0.81      0.81       162
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.87      0.83      0.85       109
+           1       0.68      0.74      0.71        53
+    accuracy                           0.80       162
+   macro avg       0.78      0.79      0.78       162
+weighted avg       0.81      0.80      0.80       162
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.86      0.83      0.84       109
+           1       0.67      0.72      0.69        53
+    accuracy                           0.79       162
+   macro avg       0.76      0.77      0.77       162
+weighted avg       0.79      0.79      0.79       162
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.91      0.86      0.88       112
+         1.0       0.72      0.82      0.77        50
     accuracy                           0.85       162
-   macro avg       0.84      0.83      0.83       162
-weighted avg       0.84      0.85      0.84       162
-</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.91      0.91       106
-           1       0.82      0.84      0.83        56
-    accuracy                           0.88       162
-   macro avg       0.87      0.87      0.87       162
-weighted avg       0.88      0.88      0.88       162
-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-         0.0       0.93      0.86      0.89       114
-         1.0       0.72      0.85      0.78        48
-    accuracy                           0.86       162
-   macro avg       0.83      0.86      0.84       162
-weighted avg       0.87      0.86      0.86       162
+   macro avg       0.82      0.84      0.83       162
+weighted avg       0.85      0.85      0.85       162
 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.90      0.92       110
-           1       0.81      0.88      0.84        52
-    accuracy                           0.90       162
-   macro avg       0.87      0.89      0.88       162
-weighted avg       0.90      0.90      0.90       162
-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.91      0.87      0.89       110
-           1       0.75      0.83      0.79        52
-    accuracy                           0.86       162
-   macro avg       0.83      0.85      0.84       162
-weighted avg       0.86      0.86      0.86       162
-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.95      0.85      0.90       117
-           1       0.70      0.89      0.78        45
-    accuracy                           0.86       162
-   macro avg       0.83      0.87      0.84       162
-weighted avg       0.88      0.86      0.87       162
-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.93      0.87      0.90       113
-           1       0.74      0.86      0.79        49
+           0       0.92      0.87      0.90       111
+           1       0.75      0.84      0.80        51
     accuracy                           0.86       162
    macro avg       0.84      0.86      0.85       162
 weighted avg       0.87      0.86      0.87       162
 </t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.83      0.88       118
+           1       0.65      0.84      0.73        44
+    accuracy                           0.83       162
+   macro avg       0.79      0.84      0.81       162
+weighted avg       0.86      0.83      0.84       162
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.95      0.82      0.88       122
+           1       0.61      0.88      0.72        40
+    accuracy                           0.83       162
+   macro avg       0.78      0.85      0.80       162
+weighted avg       0.87      0.83      0.84       162
+</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.87      0.89       109
+           1       0.75      0.81      0.78        53
+    accuracy                           0.85       162
+   macro avg       0.83      0.84      0.83       162
+weighted avg       0.86      0.85      0.85       162
+</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.96      0.88      0.92       115
-           1       0.75      0.91      0.83        47
+           0       0.93      0.88      0.90       112
+           1       0.75      0.86      0.80        50
+    accuracy                           0.87       162
+   macro avg       0.84      0.87      0.85       162
+weighted avg       0.88      0.87      0.87       162
+</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.88      0.91       112
+           1       0.77      0.88      0.82        50
+    accuracy                           0.88       162
+   macro avg       0.86      0.88      0.87       162
+weighted avg       0.89      0.88      0.88       162
+</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.83      0.87       116
+           1       0.65      0.80      0.72        46
+    accuracy                           0.82       162
+   macro avg       0.78      0.82      0.79       162
+weighted avg       0.84      0.82      0.83       162
+</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.88      0.88      0.88       105
+           1       0.77      0.77      0.77        57
+    accuracy                           0.84       162
+   macro avg       0.82      0.82      0.82       162
+weighted avg       0.84      0.84      0.84       162
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chi_Square feature selection</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.68      0.89      0.77        80
+           1       0.84      0.59      0.69        82
+    accuracy                           0.73       162
+   macro avg       0.76      0.74      0.73       162
+weighted avg       0.76      0.73      0.73       162
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.83      0.89      0.86        98
+           1       0.81      0.72      0.76        64
+    accuracy                           0.82       162
+   macro avg       0.82      0.80      0.81       162
+weighted avg       0.82      0.82      0.82       162
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.72      0.70      0.71       109
+           1       0.42      0.45      0.44        53
+    accuracy                           0.62       162
+   macro avg       0.57      0.58      0.57       162
+weighted avg       0.62      0.62      0.62       162
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.89      0.94      0.91        99
+         1.0       0.89      0.81      0.85        63
     accuracy                           0.89       162
-   macro avg       0.86      0.90      0.87       162
-weighted avg       0.90      0.89      0.89       162
-</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.94      0.82      0.88       120
-           1       0.63      0.86      0.73        42
+   macro avg       0.89      0.87      0.88       162
+weighted avg       0.89      0.89      0.89       162
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.75      0.77      0.76       102
+           1       0.60      0.57      0.58        60
+    accuracy                           0.70       162
+   macro avg       0.67      0.67      0.67       162
+weighted avg       0.69      0.70      0.70       162
+</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.88      0.89       107
+           1       0.77      0.80      0.79        55
+    accuracy                           0.85       162
+   macro avg       0.83      0.84      0.84       162
+weighted avg       0.85      0.85      0.85       162
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.88      0.90      0.89       102
+           1       0.82      0.78      0.80        60
+    accuracy                           0.86       162
+   macro avg       0.85      0.84      0.85       162
+weighted avg       0.86      0.86      0.86       162
+</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.82      0.89      0.85        97
+           1       0.81      0.71      0.75        65
+    accuracy                           0.81       162
+   macro avg       0.81      0.80      0.80       162
+weighted avg       0.81      0.81      0.81       162
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.87      0.88      0.88       103
+           1       0.79      0.76      0.78        59
+    accuracy                           0.84       162
+   macro avg       0.83      0.82      0.83       162
+weighted avg       0.84      0.84      0.84       162
+</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       1.00      0.65      0.79       162
+           1       0.00      0.00      0.00         0
+    accuracy                           0.65       162
+   macro avg       0.50      0.32      0.39       162
+weighted avg       1.00      0.65      0.79       162
+</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.89      0.89      0.89       105
+           1       0.79      0.79      0.79        57
+    accuracy                           0.85       162
+   macro avg       0.84      0.84      0.84       162
+weighted avg       0.85      0.85      0.85       162
+</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.78      0.91      0.84        90
+           1       0.86      0.68      0.76        72
+    accuracy                           0.81       162
+   macro avg       0.82      0.80      0.80       162
+weighted avg       0.82      0.81      0.80       162
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Boruta feature selection</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.89      0.80      0.84       116
+           1       0.60      0.74      0.66        46
+    accuracy                           0.78       162
+   macro avg       0.74      0.77      0.75       162
+weighted avg       0.80      0.78      0.79       162
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.90      0.89      0.89       106
+           1       0.79      0.80      0.80        56
+    accuracy                           0.86       162
+   macro avg       0.84      0.85      0.84       162
+weighted avg       0.86      0.86      0.86       162
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.88      0.90       109
+           1       0.77      0.83      0.80        53
+    accuracy                           0.86       162
+   macro avg       0.84      0.86      0.85       162
+weighted avg       0.87      0.86      0.87       162
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+         0.0       0.91      0.82      0.86       117
+         1.0       0.63      0.80      0.71        45
+    accuracy                           0.81       162
+   macro avg       0.77      0.81      0.79       162
+weighted avg       0.84      0.81      0.82       162
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.86      0.89       111
+           1       0.74      0.82      0.78        51
+    accuracy                           0.85       162
+   macro avg       0.83      0.84      0.83       162
+weighted avg       0.86      0.85      0.85       162
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.80      0.86       124
+           1       0.56      0.84      0.67        38
+    accuracy                           0.81       162
+   macro avg       0.75      0.82      0.77       162
+weighted avg       0.85      0.81      0.82       162
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.79      0.86       125
+           1       0.54      0.84      0.66        37
+    accuracy                           0.80       162
+   macro avg       0.74      0.81      0.76       162
+weighted avg       0.85      0.80      0.81       162
+</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.91      0.85      0.88       113
+           1       0.70      0.82      0.75        49
+    accuracy                           0.84       162
+   macro avg       0.81      0.83      0.82       162
+weighted avg       0.85      0.84      0.84       162
+</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.93      0.88      0.91       111
+           1       0.77      0.86      0.81        51
+    accuracy                           0.88       162
+   macro avg       0.85      0.87      0.86       162
+weighted avg       0.88      0.88      0.88       162
+</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.94      0.84      0.89       118
+           1       0.67      0.86      0.75        44
+    accuracy                           0.85       162
+   macro avg       0.80      0.85      0.82       162
+weighted avg       0.87      0.85      0.85       162
+</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.95      0.82      0.88       122
+           1       0.61      0.88      0.72        40
     accuracy                           0.83       162
-   macro avg       0.79      0.84      0.80       162
-weighted avg       0.86      0.83      0.84       162
+   macro avg       0.78      0.85      0.80       162
+weighted avg       0.87      0.83      0.84       162
+</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.84      0.92      0.88        96
+           1       0.86      0.74      0.80        66
+    accuracy                           0.85       162
+   macro avg       0.85      0.83      0.84       162
+weighted avg       0.85      0.85      0.84       162
 </t>
         </is>
       </c>
